--- a/data-analysis/average_scores_per_semester.xlsx
+++ b/data-analysis/average_scores_per_semester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,164 +436,93 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Math</t>
+          <t>Semester</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Physics</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Chemistry</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Biology</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>English</t>
+          <t>Total_Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>64.37254901960785</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>66.44061302681992</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65.7235494880546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.76140350877193</v>
-      </c>
-      <c r="E2" t="n">
-        <v>65.1549815498155</v>
+        <v>162.693661971831</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>65.68774703557312</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 2</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>63.18992248062015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>64.66283524904215</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.87867647058823</v>
-      </c>
-      <c r="E3" t="n">
-        <v>63.13454545454545</v>
+        <v>155.0420475319927</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>64.06209150326798</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>65.18493150684931</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65.70819672131148</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.46229508196721</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66.77397260273973</v>
+        <v>165.0287648054145</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>66.45270270270271</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Semester 4</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>64.31660231660231</v>
-      </c>
-      <c r="C5" t="n">
-        <v>64.79180887372014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64.77737226277372</v>
-      </c>
-      <c r="E5" t="n">
-        <v>64.30584192439862</v>
+        <v>166.2572463768116</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>63.55063291139241</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>65.17081850533808</v>
-      </c>
-      <c r="C6" t="n">
-        <v>64.90977443609023</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.07986111111111</v>
-      </c>
-      <c r="E6" t="n">
-        <v>65.06293706293707</v>
+        <v>166.6071428571429</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>63.8841059602649</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Semester 6</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>65.67883211678833</v>
-      </c>
-      <c r="C7" t="n">
-        <v>66.32432432432432</v>
-      </c>
-      <c r="D7" t="n">
-        <v>66.67870036101083</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64.55892255892256</v>
+        <v>164.4608695652174</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>62.31428571428572</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Semester 7</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>63.87713310580205</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64.94809688581314</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67.38698630136986</v>
-      </c>
-      <c r="E8" t="n">
-        <v>65.98961937716263</v>
+        <v>163.4938917975567</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>65.01730103806229</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Semester 8</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>63.24414715719063</v>
-      </c>
-      <c r="C9" t="n">
-        <v>64.29818181818182</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66.8301282051282</v>
-      </c>
-      <c r="E9" t="n">
-        <v>64.20265780730897</v>
+        <v>163.6267123287671</v>
       </c>
     </row>
   </sheetData>

--- a/data-analysis/average_scores_per_semester.xlsx
+++ b/data-analysis/average_scores_per_semester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total_Score</t>
+          <t>Math</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
         </is>
       </c>
     </row>
@@ -452,7 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.693661971831</v>
+        <v>64.37254901960785</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66.44061302681992</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.7235494880546</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64.76140350877193</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65.1549815498155</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.0420475319927</v>
+        <v>65.68774703557312</v>
+      </c>
+      <c r="C3" t="n">
+        <v>63.18992248062015</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.66283524904215</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.87867647058823</v>
+      </c>
+      <c r="F3" t="n">
+        <v>63.13454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.0287648054145</v>
+        <v>64.06209150326798</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.18493150684931</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.70819672131148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>63.46229508196721</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66.77397260273973</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.2572463768116</v>
+        <v>66.45270270270271</v>
+      </c>
+      <c r="C5" t="n">
+        <v>64.31660231660231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.79180887372014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64.77737226277372</v>
+      </c>
+      <c r="F5" t="n">
+        <v>64.30584192439862</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.6071428571429</v>
+        <v>63.55063291139241</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.17081850533808</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.90977443609023</v>
+      </c>
+      <c r="E6" t="n">
+        <v>66.07986111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>65.06293706293707</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.4608695652174</v>
+        <v>63.8841059602649</v>
+      </c>
+      <c r="C7" t="n">
+        <v>65.67883211678833</v>
+      </c>
+      <c r="D7" t="n">
+        <v>66.32432432432432</v>
+      </c>
+      <c r="E7" t="n">
+        <v>66.67870036101083</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64.55892255892256</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.4938917975567</v>
+        <v>62.31428571428572</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63.87713310580205</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64.94809688581314</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.38698630136986</v>
+      </c>
+      <c r="F8" t="n">
+        <v>65.98961937716263</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.6267123287671</v>
+        <v>65.01730103806229</v>
+      </c>
+      <c r="C9" t="n">
+        <v>63.24414715719063</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64.29818181818182</v>
+      </c>
+      <c r="E9" t="n">
+        <v>66.8301282051282</v>
+      </c>
+      <c r="F9" t="n">
+        <v>64.20265780730897</v>
       </c>
     </row>
   </sheetData>
